--- a/code/mqo/runs/shots_comparison/shots_success_comparison.xlsx
+++ b/code/mqo/runs/shots_comparison/shots_success_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\GitHub\Quantum Machine Learning\code\mqo\runs\shots_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED34A150-E2B5-4BBA-A01B-04E38ABF22DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C67C16F-B764-498A-B986-FCC82085A8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15300" yWindow="1425" windowWidth="34455" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
